--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +761,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +808,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +992,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1039,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1194,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1241,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1541,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1588,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1634,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1772,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1819,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1950,10 +1974,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1997,28 +2021,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2043,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2292,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2339,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2385,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2499,10 +2523,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2546,28 +2570,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2592,28 +2616,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2701,10 +2725,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2748,28 +2772,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2794,28 +2818,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2903,10 +2927,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2950,28 +2974,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2996,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3187,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3234,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3280,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3389,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3436,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3482,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3678,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3701,28 +3725,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3747,28 +3771,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4001,10 +4025,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4048,28 +4072,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4094,28 +4118,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4232,10 +4256,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4279,28 +4303,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4325,28 +4349,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4463,10 +4487,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4510,28 +4534,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4556,28 +4580,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4665,10 +4689,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4712,28 +4736,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4758,28 +4782,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4867,10 +4891,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4914,28 +4938,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4960,28 +4984,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5098,10 +5122,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5145,28 +5169,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5191,28 +5215,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5445,10 +5469,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5492,28 +5516,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5538,28 +5562,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5671,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5718,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5764,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5849,10 +5873,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5896,28 +5920,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5942,28 +5966,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6225,10 +6249,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6272,28 +6296,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6318,28 +6342,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6427,10 +6451,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6474,28 +6498,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6520,28 +6544,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6798,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6845,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6891,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6971,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
